--- a/data/produits_listes_inventaire.xlsx
+++ b/data/produits_listes_inventaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,126 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>INV001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1985628391</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Crémone Semi-Fixe 601-800 avec RA</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>E1</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>35</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Ferrure</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>BOSCHAT</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-06-02 11:31:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>INV001</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1862596481</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Crémone F8 Variable  L580 621-800</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>15</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Ferrure</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>BOSCHAT</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-06-02 11:31:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>INV001</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2582873016</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Crémone F8 Variable  L1380 1201-1600</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>15</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Ferrure</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>BOSCHAT</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-06-02 11:31:22</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/produits_listes_inventaire.xlsx
+++ b/data/produits_listes_inventaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,21 +483,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1985628391</t>
+          <t>2582873016</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Crémone Semi-Fixe 601-800 avec RA</t>
+          <t>Crémone F8 Variable  L1380 1201-1600</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -511,87 +511,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-06-02 11:31:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>INV001</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1862596481</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Crémone F8 Variable  L580 621-800</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>E2</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>15</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ferrure</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>BOSCHAT</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-06-02 11:31:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>INV001</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2582873016</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Crémone F8 Variable  L1380 1201-1600</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>E2</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>15</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ferrure</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>BOSCHAT</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-06-02 11:31:22</t>
+          <t>2025-06-02 12:56:51</t>
         </is>
       </c>
     </row>
